--- a/biology/Zoologie/Conus_radiatus/Conus_radiatus.xlsx
+++ b/biology/Zoologie/Conus_radiatus/Conus_radiatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus radiatus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille de la coquille varie entre 30 mm et 109 mm. La couleur de la coquille est jaunâtre pâle à châtaigne pâle, souvent marquée longitudinalement indistinctement d'une coloration plus profonde. La spire est striée. La partie inférieure du verticille est distalement sulcinée. La variété blanche est fréquemment recouverte d'un épiderme lisse et olivâtre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille de la coquille varie entre 30 mm et 109 mm. La couleur de la coquille est jaunâtre pâle à châtaigne pâle, souvent marquée longitudinalement indistinctement d'une coloration plus profonde. La spire est striée. La partie inférieure du verticille est distalement sulcinée. La variété blanche est fréquemment recouverte d'un épiderme lisse et olivâtre.
 La conantokine-C est une toxine dérivée du venin de Conus radiatus.
 </t>
         </is>
@@ -544,11 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large des Philippines, de la Nouvelle-Guinée et des Fidji.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve de Taïwan aux Philippines, à la Papouasie-Nouvelle-Guinée, aux îles Salomon et à Fidji. Cette espèce est commune dans les eaux peu profondes dans certaines parties de son aire de répartition. Il n'y a pas de menaces majeures connues pour cette espèce. Elle est classée dans la catégorie " préoccupation mineure "[2].
 </t>
         </is>
       </c>
@@ -574,15 +588,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve de Taïwan aux Philippines, à la Papouasie-Nouvelle-Guinée, aux îles Salomon et à Fidji. Cette espèce est commune dans les eaux peu profondes dans certaines parties de son aire de répartition. Il n'y a pas de menaces majeures connues pour cette espèce. Elle est classée dans la catégorie " préoccupation mineure ".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_radiatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_radiatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus radiatus a été décrite pour la première fois en 1791 par le naturaliste et chimiste allemand Johann Friedrich Gmelin dans « Systema Naturae Linneaeus (ed) Ed 13 »[3],[4].
-Synonymes
-Conus (Phasmoconus) radiatus Gmelin, 1791 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus radiatus a été décrite pour la première fois en 1791 par le naturaliste et chimiste allemand Johann Friedrich Gmelin dans « Systema Naturae Linneaeus (ed) Ed 13 »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_radiatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_radiatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Phasmoconus) radiatus Gmelin, 1791 · appellation alternative
 Phasmoconus (Phasmoconus) radiatus (Gmelin, 1791) · non accepté
 Phasmoconus radiatus (Gmelin, 1791) · non accepté</t>
         </is>
